--- a/1060data/StudentDataOverview.xlsx
+++ b/1060data/StudentDataOverview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amorrison/Projects/hand_sensor_test/1060data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10071B0-09B5-9E44-BE4D-A378108C0525}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5F25CF-FEE4-E34F-8847-3C60E7D80934}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="28720" windowHeight="17540" xr2:uid="{8FE8D470-D939-FF46-8635-98E538A1D1F7}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -272,16 +272,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -601,16 +601,23 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
+      <selection pane="bottomRight" activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="4" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="2" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
@@ -618,67 +625,67 @@
         <v>2</v>
       </c>
       <c r="B1" s="16">
-        <v>43354</v>
+        <v>43354.520833333336</v>
       </c>
       <c r="C1" s="17">
-        <v>43356</v>
+        <v>43356.520833333336</v>
       </c>
       <c r="D1" s="17">
-        <v>43361</v>
+        <v>43361.520833333336</v>
       </c>
       <c r="E1" s="17">
-        <v>43368</v>
+        <v>43368.520833333336</v>
       </c>
       <c r="F1" s="17">
-        <v>43370</v>
+        <v>43370.520833333336</v>
       </c>
       <c r="G1" s="17">
-        <v>43375</v>
+        <v>43375.520833333336</v>
       </c>
       <c r="H1" s="17">
-        <v>43377</v>
+        <v>43377.520833333336</v>
       </c>
       <c r="I1" s="17">
-        <v>43384</v>
+        <v>43384.520833333336</v>
       </c>
       <c r="J1" s="17">
-        <v>43389</v>
+        <v>43389.520833333336</v>
       </c>
       <c r="K1" s="17">
-        <v>43391</v>
+        <v>43391.520833333336</v>
       </c>
       <c r="L1" s="17">
-        <v>43396</v>
+        <v>43396.520833333336</v>
       </c>
       <c r="M1" s="17">
-        <v>43398</v>
+        <v>43398.520833333336</v>
       </c>
       <c r="N1" s="17">
-        <v>43403</v>
+        <v>43403.520833333336</v>
       </c>
       <c r="O1" s="17">
-        <v>43405</v>
+        <v>43405.520833333336</v>
       </c>
       <c r="P1" s="17">
-        <v>43412</v>
+        <v>43412.520833333336</v>
       </c>
       <c r="Q1" s="17">
-        <v>43417</v>
+        <v>43417.520833333336</v>
       </c>
       <c r="R1" s="17">
-        <v>43419</v>
+        <v>43419.520833333336</v>
       </c>
       <c r="S1" s="18">
-        <v>43431</v>
+        <v>43431.520833333336</v>
       </c>
       <c r="T1" s="19">
-        <v>43433</v>
+        <v>43433.520833333336</v>
       </c>
       <c r="U1" s="19">
-        <v>43438</v>
+        <v>43438.520833333336</v>
       </c>
       <c r="V1" s="19">
-        <v>43440</v>
+        <v>43440.520833333336</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
